--- a/va_facility_data_2025-02-20/Charles George Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Charles%20George%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Charles George Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Charles%20George%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Rda91b855067440d6842d11f65a578d04"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="Rc42c25e0cb21499a8d010417a1fdac86"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Rd09b529c5de64db8a73de87854623714"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="Rde85da273ab744959ba0ffe8b5350dc7"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R82f8f409ab184187a359b05eaecd3836"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Rb9f5f71f23c64e7984380abcedea302f"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="R3f6baad0cd2c461db5f012cbda2628ad"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R768e31f6df4f48448339c0f850fc598f"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R700a50fb184348cc94eda530ca1c13ac"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R8aaf19e5d59243979adcc6dd6c048b2f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R651f719b08e2438ea1492de5f5cda458"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R07c02fce8fd34b20b2f4654c560a2647"/>
   </x:sheets>
 </x:workbook>
 </file>
